--- a/Translation Script/Map124.xlsx
+++ b/Translation Script/Map124.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>自動実行</t>
   </si>
@@ -40,6 +40,10 @@
   <si>
     <t>\n&lt;シィナ&gt;マーオ！！
 （ぶっ殺してやるにゃ！！）</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meow!
+（I'll kill you, nya!!）</t>
   </si>
   <si>
     <t>\n&lt;館主&gt;どうした？
@@ -47,12 +51,25 @@
 そこから出たいのか？</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;What's this?
+Such a cute little voice.
+Do you want to come out?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;シャーッ！！！
 （死ねクソ野郎！！）</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Meooow!!!
+(Die you son of a bitch!!)</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;やれやれ。
 本当にカワイイなお前は。</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Oh my.
+You are just too cute.</t>
   </si>
   <si>
     <t>\n&lt;館主&gt;私はね・・・
@@ -60,40 +77,81 @@
 全てを手に入れたんだよ。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;I've got money, power...
+And now I've obtained love.
+I really have it all.</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;帯付きの札束を見せれば女は食いつき、
 女を当てがえば男は簡単に懐柔できる。
 みんな、すぐに私のことが大好きになるんだ。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;Flash a wad of bills, and women flock to me.
+It's so simple for a man to get any woman he wants.
+Everybody loves me.</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;・・・
 だが、お前はどうだ？</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;...
+But what about you?</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;私のやった高級カリカリやマグロをたらふく食っておきながら
 ちっとも心を許そうとしないじゃないか。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;I bought you all the finest crispy tuna you could eat,
+and still your heart has not opened up to me.</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;ほら、喉を鳴らして足元にすり寄って来い。
 他のみんなと同じように、私を愛しておくれ。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;Come, curl up purring at my feet.
+Love me like everyone else does.</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;はぁ～・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Ha～…</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;にゃふッ！！カッ！カッ！
 （げほっ！くせぇ息かけんにゃ！！ペッ！ペッ！）</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Nyaaaah!! Hiss! Hiss!
+(Cough! Can't breathe!! Peh! Peh!)</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;珍しい毛色の猫なので
 ペットにしてやるのもいいかと考えていたが、これではな。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;I thought a cat with a rare coat would
+make a good pet, but it would seem not.</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;お前はもう\.・\.・\.・\.\.
 使ってしまうか。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;You may have\..\..\..\.\.
+Outlived your usefulness.</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;誰だ。
 入っていいとは一言も言っていないはずだが。</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Who's there?
+I did not say you could enter.</t>
   </si>
   <si>
     <t>\n&lt;赤髪の淫魔&gt;あれ？
@@ -101,28 +159,57 @@
 随分と防音がしっかりしてるのね。この部屋は。</t>
   </si>
   <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ahh? You didn't hear any screams or gasps
+just now? The soundproofing on this room
+must be incredible.。</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;お前は魔物か！？
 誰か！！
 ガードを呼べ！！</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;Y-you're a demon!?
+Someone!!
+Call the guards!!</t>
+  </si>
+  <si>
     <t>\n&lt;赤髪の淫魔&gt;誰も来ないわよ。
 干乾びてるやつ以外は、あんたを置いてみーんな逃げちゃった。
 愛されてるのね♥くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;Red Haired Succubus&gt;Nobody's coming. They've all run away.
+Except for the one that I sucked dry.
+He's a little lovesick♥ Hee hee♥</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;く・・・
 近寄るな！
 私を誰だと・・・！！</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;Kuh...
+Keep back!
+Do you know who I am...!!</t>
+  </si>
+  <si>
     <t>\n&lt;赤髪の淫魔&gt;あら、カワイイ猫ちゃん♥
 ちっちっちっ♥
 おいでおいでー♥</t>
   </si>
   <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ara, what a cute kitty cat♥
+Psspsspss♥
+C'mere kitty-♥</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;んにゃぉ？
 （何だコイツ？）</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaah?
+(Who the hell are you?)</t>
   </si>
   <si>
     <t>\n&lt;赤髪の淫魔&gt;あっ！いいこと考えた♥
@@ -130,8 +217,17 @@
 自分のペットに搾り殺されるって言うのはどーお？</t>
   </si>
   <si>
+    <t>\n&lt;Red Haired Succubus&gt;Ah! I just had an idea♥
+So you don't like me. How'd you like to be milked
+to death by your own pet instead?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;んにゃ・・・！
 何にゃこれ一体！？</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;N-nyaah...!
+What the hell!?</t>
   </si>
   <si>
     <t>\n&lt;館主&gt;な、何が目的だ。
@@ -139,16 +235,33 @@
 要望を言え。話をしようではないか。</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;Wh-what's your aim?
+D...do you want money? Name your price.
+We can talk about this.</t>
+  </si>
+  <si>
     <t>\n&lt;赤髪の淫魔&gt;目的ぃ？
 うーん。特に無いかな。
 しいて言うなら～・・・</t>
   </si>
   <si>
+    <t>\n&lt;Red Haired Succubus&gt;My aim?
+Hmmm. Nothing in particular.
+Let's see～…</t>
+  </si>
+  <si>
     <t>\n&lt;赤髪の淫魔&gt;いや、別に無いわ。ごめんね。</t>
+  </si>
+  <si>
+    <t>\n&lt;Red Haired Succubus&gt;Nope, I don't need anything. Sorry.</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;はぁ・・・はぁ・・・
 か、身体が熱いにゃぁ・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hah... Hah...
+M-my body feels hot...!!</t>
   </si>
   <si>
     <t>\n&lt;館主&gt;ぐお・・・！！
@@ -156,7 +269,15 @@
 やめ・・・！！</t>
   </si>
   <si>
+    <t>\n&lt;Master&gt;Gwaaah...!!
+U-unhand me...!!
+Stop...!!</t>
+  </si>
+  <si>
     <t>\n&lt;館主&gt;ぐああああああああぁぁぁぁぁぁあ！！！</t>
+  </si>
+  <si>
+    <t>\n&lt;Master&gt;Gyaaaaaaaaaaaah!!!</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;死ね！！死ね！！</t>
@@ -670,7 +791,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +799,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -694,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -702,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -710,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -718,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -726,548 +847,632 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
